--- a/biology/Zoologie/Émouchet_(oiseau)/Émouchet_(oiseau).xlsx
+++ b/biology/Zoologie/Émouchet_(oiseau)/Émouchet_(oiseau).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89mouchet_(oiseau)</t>
+          <t>Émouchet_(oiseau)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme émouchet est un nom vernaculaire ambigu qui ne correspond pas à un taxon biologique exact.
 Le nom d'émouchet est donné à deux petits rapaces du genre Accipiter, appelés aussi selon les cas « Autour » ou « Épervier ».
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89mouchet_(oiseau)</t>
+          <t>Émouchet_(oiseau)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Liste des espèces nommées « émouchet »</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Émouchet - Accipiter nisus
 Émouchet gris - Accipiter nisus
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89mouchet_(oiseau)</t>
+          <t>Émouchet_(oiseau)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prononciation : é-mou-chè (comme dans succès) ; le t ne se lie pas mais la liaison se fait au pluriel avec le s (les é-mou-chè-z et les...)[1].
-Étymologie: l'émouchet est nommé ainsi en raison des mouchetures du plumage de l'oiseau[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prononciation : é-mou-chè (comme dans succès) ; le t ne se lie pas mais la liaison se fait au pluriel avec le s (les é-mou-chè-z et les...).
+Étymologie: l'émouchet est nommé ainsi en raison des mouchetures du plumage de l'oiseau
 </t>
         </is>
       </c>
